--- a/Data/CorrelationResults.xlsx
+++ b/Data/CorrelationResults.xlsx
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13.95"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -110,26 +116,300 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13.95"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13.95"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13.95"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13.95"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -140,6 +420,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:C11"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="City" dataDxfId="6"/>
+    <tableColumn id="2" name="Pearson Correlation-Coefficient" dataDxfId="5"/>
+    <tableColumn id="3" name="P-Value" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,138 +699,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>-1.5412604999999999E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0.84049255099999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.120142077</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.15292853300000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>-5.3266119000000001E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.364432325</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.218799784</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>6.5834040000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.13477388900000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>7.2871907999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.16925050799999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>3.4669323000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.34111236</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>2.7599999999999998E-7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>-7.8142489999999995E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>0.336999033</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>4.7276067999999997E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>0.58751789499999996</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>-0.25422011799999999</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>6.1648400000000004E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>